--- a/test/devide_tauw_and_ashgc/正解値.xlsx
+++ b/test/devide_tauw_and_ashgc/正解値.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\devide_tauw_and_ashgc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6C177-1B4F-4C24-AF21-2AD7CC6F6E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA3C08-D8FA-4DA7-A141-A80C9C90EF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="0" windowWidth="23430" windowHeight="15600" xr2:uid="{61AF07E7-24A3-4804-BB94-9280D08AC71B}"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="23430" windowHeight="15600" xr2:uid="{61AF07E7-24A3-4804-BB94-9280D08AC71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>ηw</t>
     <phoneticPr fontId="1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F8739F-4743-4155-9A12-995BCCF62D2C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -602,6 +602,37 @@
         <v>0.1515</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <f>A6/C6</f>
+        <v>0.99</v>
+      </c>
+      <c r="E6">
+        <f>0.99*D6-0.1</f>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>0.1099</v>
+      </c>
+      <c r="G6">
+        <f>E6*$C6</f>
+        <v>0.70408000000000004</v>
+      </c>
+      <c r="H6">
+        <f>A6-G6</f>
+        <v>8.7919999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/devide_tauw_and_ashgc/正解値.xlsx
+++ b/test/devide_tauw_and_ashgc/正解値.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\devide_tauw_and_ashgc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA3C08-D8FA-4DA7-A141-A80C9C90EF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCE577-A7D1-4EA5-BD23-26AFAA4EE440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="23430" windowHeight="15600" xr2:uid="{61AF07E7-24A3-4804-BB94-9280D08AC71B}"/>
+    <workbookView xWindow="12960" yWindow="1035" windowWidth="15630" windowHeight="14415" xr2:uid="{61AF07E7-24A3-4804-BB94-9280D08AC71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -493,20 +493,20 @@
         <v>0.87499999999999989</v>
       </c>
       <c r="E2">
-        <f>0.99*D2-0.1</f>
-        <v>0.76624999999999988</v>
+        <f>-0.34*D2^3+0.81*D2^2+0.46*D2</f>
+        <v>0.79488281249999992</v>
       </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>0.10875000000000001</v>
+        <v>8.0117187499999964E-2</v>
       </c>
       <c r="G2">
         <f>E2*$C2</f>
-        <v>0.61299999999999999</v>
+        <v>0.63590625000000001</v>
       </c>
       <c r="H2">
         <f>A2-G2</f>
-        <v>8.6999999999999966E-2</v>
+        <v>6.4093749999999949E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -524,20 +524,20 @@
         <v>0.25</v>
       </c>
       <c r="E3">
-        <f>0.99*D3-0.1</f>
-        <v>0.14749999999999999</v>
+        <f>-0.34*D3^3+0.81*D3^2+0.46*D3</f>
+        <v>0.16031250000000002</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F5" si="1">D3-E3</f>
-        <v>0.10250000000000001</v>
+        <v>8.9687499999999976E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G5" si="2">E3*$C3</f>
-        <v>0.11799999999999999</v>
+        <v>0.12825000000000003</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="3">A3-G3</f>
-        <v>8.2000000000000017E-2</v>
+        <v>7.174999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -555,20 +555,20 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="E4">
-        <f>0.77*D4^2+0.41*D4-0.09</f>
-        <v>0.65062499999999979</v>
+        <f>-0.7*D4^3+1.94*D4^2-0.19*D4</f>
+        <v>0.65343749999999978</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>9.9375000000000102E-2</v>
+        <v>9.6562500000000107E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.52049999999999985</v>
+        <v>0.52274999999999983</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>7.9500000000000126E-2</v>
+        <v>7.7250000000000152E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -586,20 +586,20 @@
         <v>0.25</v>
       </c>
       <c r="E5">
-        <f>0.77*D5^2+0.41*D5-0.09</f>
-        <v>6.0625000000000012E-2</v>
+        <f>-0.7*D5^3+1.94*D5^2-0.19*D5</f>
+        <v>6.2812499999999993E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.18937499999999999</v>
+        <v>0.18718750000000001</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>4.8500000000000015E-2</v>
+        <v>5.0249999999999996E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>0.1515</v>
+        <v>0.14975000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -617,20 +617,20 @@
         <v>0.99</v>
       </c>
       <c r="E6">
-        <f>0.99*D6-0.1</f>
-        <v>0.88009999999999999</v>
+        <f>-0.34*D6^3+0.81*D6^2+0.46*D6</f>
+        <v>0.9193793400000001</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>0.1099</v>
+        <v>7.0620659999999891E-2</v>
       </c>
       <c r="G6">
         <f>E6*$C6</f>
-        <v>0.70408000000000004</v>
+        <v>0.7355034720000001</v>
       </c>
       <c r="H6">
         <f>A6-G6</f>
-        <v>8.7919999999999998E-2</v>
+        <v>5.6496527999999935E-2</v>
       </c>
     </row>
   </sheetData>

--- a/test/devide_tauw_and_ashgc/正解値.xlsx
+++ b/test/devide_tauw_and_ashgc/正解値.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\devide_tauw_and_ashgc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCE577-A7D1-4EA5-BD23-26AFAA4EE440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1728FB6-E813-45AD-8018-687CA174E486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="1035" windowWidth="15630" windowHeight="14415" xr2:uid="{61AF07E7-24A3-4804-BB94-9280D08AC71B}"/>
+    <workbookView xWindow="435" yWindow="1860" windowWidth="12720" windowHeight="11385" xr2:uid="{61AF07E7-24A3-4804-BB94-9280D08AC71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ηw</t>
     <phoneticPr fontId="1"/>
@@ -84,11 +84,30 @@
     <t>single</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>a_g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho_g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho_w</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -104,12 +123,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,8 +151,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,15 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F8739F-4743-4155-9A12-995BCCF62D2C}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +509,25 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.7</v>
       </c>
@@ -501,46 +550,78 @@
         <v>8.0117187499999964E-2</v>
       </c>
       <c r="G2">
+        <f>IF(E2+3.76*F2&lt;1,3.76*F2,1-E2)</f>
+        <v>0.20511718750000008</v>
+      </c>
+      <c r="H2">
+        <f>1-E2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <f>E2*$C2</f>
         <v>0.63590625000000001</v>
       </c>
-      <c r="H2">
-        <f>A2-G2</f>
+      <c r="J2" s="1">
+        <f>A2-I2</f>
         <v>6.4093749999999949E-2</v>
       </c>
+      <c r="K2" s="1">
+        <f>G2*$C2</f>
+        <v>0.16409375000000007</v>
+      </c>
+      <c r="L2" s="1">
+        <f>H2*$C2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>0.2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D5" si="0">A3/C3</f>
         <v>0.25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f>-0.34*D3^3+0.81*D3^2+0.46*D3</f>
         <v>0.16031250000000002</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F5" si="1">D3-E3</f>
         <v>8.9687499999999976E-2</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" si="2">E3*$C3</f>
+      <c r="G3" s="2">
+        <f>IF(E3+3.76*F3&lt;1,3.76*F3,1-E3)</f>
+        <v>0.33722499999999989</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H6" si="2">1-E3-G3</f>
+        <v>0.50246250000000003</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I5" si="3">E3*$C3</f>
         <v>0.12825000000000003</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="3">A3-G3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J5" si="4">A3-I3</f>
         <v>7.174999999999998E-2</v>
       </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K6" si="5">G3*$C3</f>
+        <v>0.26977999999999991</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L6" si="6">H3*$C3</f>
+        <v>0.40197000000000005</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -563,15 +644,31 @@
         <v>9.6562500000000107E-2</v>
       </c>
       <c r="G4">
+        <f>IF(E4+3.01*F4&lt;1,3.01*F4,1-E4)</f>
+        <v>0.29065312500000029</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
+        <v>5.5909374999999928E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
         <v>0.52274999999999983</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
+      <c r="J4" s="1">
+        <f t="shared" si="4"/>
         <v>7.7250000000000152E-2</v>
       </c>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23252250000000024</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4727499999999948E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -594,15 +691,31 @@
         <v>0.18718750000000001</v>
       </c>
       <c r="G5">
+        <f>IF(E5+3.01*F5&lt;1,3.01*F5,1-E5)</f>
+        <v>0.56343437499999993</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="2"/>
+        <v>0.37375312500000013</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
         <v>5.0249999999999996E-2</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
         <v>0.14975000000000002</v>
       </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45074749999999997</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.29900250000000012</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.79200000000000004</v>
       </c>
@@ -625,12 +738,28 @@
         <v>7.0620659999999891E-2</v>
       </c>
       <c r="G6">
+        <f>IF(E6+3.76*F6&lt;1,3.76*F6,1-E6)</f>
+        <v>8.06206599999999E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <f>E6*$C6</f>
         <v>0.7355034720000001</v>
       </c>
-      <c r="H6">
-        <f>A6-G6</f>
+      <c r="J6" s="1">
+        <f>A6-I6</f>
         <v>5.6496527999999935E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4496527999999928E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
